--- a/data/school_info/college_conference.xlsx
+++ b/data/school_info/college_conference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\BB_parks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\BB_parks\data\school_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C905A62-117D-4EA6-9BA5-0E722585ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26553C40-98F6-49D9-9F03-F15E20DB202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{0B231B8A-1C9B-4478-9604-CF0544DDB6CE}"/>
+    <workbookView xWindow="-20550" yWindow="1755" windowWidth="18900" windowHeight="11025" xr2:uid="{0B231B8A-1C9B-4478-9604-CF0544DDB6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Division</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>Kalamazoo Valley Community College</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>New_plot</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>Gerace Baseball Stadium</t>
+  </si>
+  <si>
+    <t>Roche Sports Complex</t>
+  </si>
+  <si>
+    <t>Alumni Field - Champions Stadium</t>
+  </si>
+  <si>
+    <t>Lake Trust Stadium</t>
+  </si>
+  <si>
+    <t>* no clear home field, they seem to play home games at wayne state and the corner public field</t>
+  </si>
+  <si>
+    <t>Bill Shinsky Field</t>
+  </si>
+  <si>
+    <t>no clear field on campus, may play at gainey</t>
+  </si>
+  <si>
+    <t>no clear field on campus</t>
+  </si>
+  <si>
+    <t>Kelloggwoods Park - former Kelloggsville HS foeld</t>
   </si>
 </sst>
 </file>
@@ -264,6 +303,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1173240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1490040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280306E5-99BC-1174-F525-E1B8FD3877BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1173240" y="1071720"/>
+            <a:ext cx="316800" cy="38160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280306E5-99BC-1174-F525-E1B8FD3877BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1164600" y="1063080"/>
+              <a:ext cx="334440" cy="55800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-17T21:36:03.717"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 106 1400,'0'0'1545,"303"-41"-1801,-235 32 200,6 0 56,0 1 0,1-1 0,39-3 48,-17 3-48,-23 1-761</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303F8C2E-356B-4FC7-8BE1-15701D4B2DD0}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,111 +710,162 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -686,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -694,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -702,23 +889,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -726,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -734,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -742,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -750,31 +946,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -782,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -790,44 +998,62 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,5 +1203,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>